--- a/West Bengal/Predicted_WB.xlsx
+++ b/West Bengal/Predicted_WB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\Arima &amp; Sarima - COVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4817943E-12A3-4098-8FA1-18031F6FD3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{F661C120-7334-45FC-90B1-FA71F9BD5045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -49,48 +49,6 @@
     <t>Predicted_Decreased</t>
   </si>
   <si>
-    <t>2020-06-12</t>
-  </si>
-  <si>
-    <t>2020-06-13</t>
-  </si>
-  <si>
-    <t>2020-06-14</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>2020-06-19</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>2020-06-21</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>2020-06-25</t>
-  </si>
-  <si>
     <t>2020-06-26</t>
   </si>
   <si>
@@ -110,18 +68,6 @@
   </si>
   <si>
     <t>2020-07-02</t>
-  </si>
-  <si>
-    <t>2020-07-03</t>
-  </si>
-  <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>2020-07-05</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
   </si>
   <si>
     <t>MAPE</t>
@@ -191,22 +137,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>148375</xdr:rowOff>
+      <xdr:colOff>570096</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488CA092-CCD0-40B9-BD8E-26E365066F13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CAA73D5-14C9-4E4E-9DA0-FB6904B04259}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -222,8 +168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45720" y="4754880"/>
-          <a:ext cx="7223760" cy="3943135"/>
+          <a:off x="30480" y="1828800"/>
+          <a:ext cx="7161396" cy="3909059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -235,22 +181,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533402</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>99059</xdr:rowOff>
+      <xdr:colOff>659024</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AF046B-8EB7-41AE-B37D-D560A59B3B09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D527908-A426-4FFF-93E4-B07393BD1EB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -266,8 +212,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7155182" y="4785360"/>
-          <a:ext cx="6972298" cy="3863339"/>
+          <a:off x="7193281" y="1775461"/>
+          <a:ext cx="7219843" cy="3939540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -279,22 +225,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>464819</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>160021</xdr:rowOff>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>479686</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>347272</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB01593F-CD75-4CC4-8BD7-F4FB8A7D7013}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A5FE8B-650B-45D2-9D30-5E928296266A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,8 +256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3809999" y="8709661"/>
-          <a:ext cx="7253867" cy="3992879"/>
+          <a:off x="3375661" y="5768341"/>
+          <a:ext cx="7555791" cy="4168139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -665,22 +611,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="C2">
-        <v>480.03624651077098</v>
+        <v>494.07739627533903</v>
       </c>
       <c r="D2">
-        <v>218</v>
+        <v>345</v>
       </c>
       <c r="E2">
-        <v>195.55787356123</v>
+        <v>481.66346598866897</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>12.443079513574901</v>
+        <v>12.8353927747205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,22 +634,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="C3">
-        <v>511.27584684506201</v>
+        <v>585.47917597610399</v>
       </c>
       <c r="D3">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="E3">
-        <v>187.54126460726101</v>
+        <v>468.96482422323402</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>11.089552112091299</v>
+        <v>13.323360165903001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,22 +657,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>389</v>
+        <v>572</v>
       </c>
       <c r="C4">
-        <v>500.67720666074098</v>
+        <v>508.49444906189302</v>
       </c>
       <c r="D4">
-        <v>518</v>
+        <v>404</v>
       </c>
       <c r="E4">
-        <v>193.74777429396801</v>
+        <v>463.19261702378401</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>12.5792830027093</v>
+        <v>11.255856122407801</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,22 +680,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>407</v>
+        <v>624</v>
       </c>
       <c r="C5">
-        <v>514.90662108839194</v>
+        <v>492.16043153313598</v>
       </c>
       <c r="D5">
-        <v>434</v>
+        <v>526</v>
       </c>
       <c r="E5">
-        <v>199.03774430314201</v>
+        <v>459.29879436416797</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>11.4127223826847</v>
+        <v>13.3359245473995</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -757,22 +703,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>415</v>
+        <v>652</v>
       </c>
       <c r="C6">
-        <v>521.36003401940195</v>
+        <v>538.95377248559998</v>
       </c>
       <c r="D6">
-        <v>534</v>
+        <v>411</v>
       </c>
       <c r="E6">
-        <v>213.281947083067</v>
+        <v>508.47014238446599</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>12.853136074307599</v>
+        <v>14.182661356381301</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,22 +726,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>391</v>
+        <v>611</v>
       </c>
       <c r="C7">
-        <v>469.18337857455401</v>
+        <v>509.51701056408001</v>
       </c>
       <c r="D7">
-        <v>505</v>
+        <v>398</v>
       </c>
       <c r="E7">
-        <v>251.56916251964799</v>
+        <v>511.46261864819201</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>11.694456962039499</v>
+        <v>13.506051820922499</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,450 +749,36 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>435</v>
+        <v>649</v>
       </c>
       <c r="C8">
-        <v>486.88500324804397</v>
+        <v>603.95623613816497</v>
       </c>
       <c r="D8">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="E8">
-        <v>240.96053543394299</v>
+        <v>595.34069007769494</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>13.132589776915299</v>
+        <v>20.645726245584001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>355</v>
-      </c>
-      <c r="C9">
-        <v>543.29684509452602</v>
-      </c>
-      <c r="D9">
-        <v>302</v>
-      </c>
-      <c r="E9">
-        <v>228.95911522466599</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>11.974262139910801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>441</v>
-      </c>
-      <c r="C10">
-        <v>565.44474007188899</v>
-      </c>
-      <c r="D10">
-        <v>562</v>
-      </c>
-      <c r="E10">
-        <v>203.16918094512999</v>
-      </c>
-      <c r="F10">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>13.412291434770101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>414</v>
-      </c>
-      <c r="C11">
-        <v>604.49759998867899</v>
-      </c>
-      <c r="D11">
-        <v>432</v>
-      </c>
-      <c r="E11">
-        <v>239.733793869614</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>12.2539796436535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>413</v>
-      </c>
-      <c r="C12">
-        <v>598.77667849987097</v>
-      </c>
-      <c r="D12">
-        <v>390</v>
-      </c>
-      <c r="E12">
-        <v>246.49069618725801</v>
-      </c>
-      <c r="F12">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>13.692004256180301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>370</v>
-      </c>
-      <c r="C13">
-        <v>607.66255630222099</v>
-      </c>
-      <c r="D13">
-        <v>531</v>
-      </c>
-      <c r="E13">
-        <v>234.21224521794099</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>12.5336931809105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>445</v>
-      </c>
-      <c r="C14">
-        <v>602.49944725230705</v>
-      </c>
-      <c r="D14">
-        <v>484</v>
-      </c>
-      <c r="E14">
-        <v>262.63093157401801</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>13.971717581783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>475</v>
-      </c>
-      <c r="C15">
-        <v>568.41512930703698</v>
-      </c>
-      <c r="D15">
-        <v>488</v>
-      </c>
-      <c r="E15">
-        <v>262.08899064169299</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>12.8134065388642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>542</v>
-      </c>
-      <c r="C16">
-        <v>564.98369436524899</v>
-      </c>
-      <c r="D16">
-        <v>345</v>
-      </c>
-      <c r="E16">
-        <v>290.33828889786997</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>14.2514309301704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>521</v>
-      </c>
-      <c r="C17">
-        <v>643.15168740076501</v>
-      </c>
-      <c r="D17">
-        <v>254</v>
-      </c>
-      <c r="E17">
-        <v>274.67176199249201</v>
-      </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>13.0931198887137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>572</v>
-      </c>
-      <c r="C18">
-        <v>666.05080647932095</v>
-      </c>
-      <c r="D18">
-        <v>404</v>
-      </c>
-      <c r="E18">
-        <v>267.15021092436899</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>14.5311442795876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>624</v>
-      </c>
-      <c r="C19">
-        <v>714.25605220466798</v>
-      </c>
-      <c r="D19">
-        <v>526</v>
-      </c>
-      <c r="E19">
-        <v>268.32692737979102</v>
-      </c>
-      <c r="F19">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>13.3728332381969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>652</v>
-      </c>
-      <c r="C20">
-        <v>691.10886204014798</v>
-      </c>
-      <c r="D20">
-        <v>411</v>
-      </c>
-      <c r="E20">
-        <v>293.415902268038</v>
-      </c>
-      <c r="F20">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>14.8108576290513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>611</v>
-      </c>
-      <c r="C21">
-        <v>715.48529263279204</v>
-      </c>
-      <c r="D21">
-        <v>398</v>
-      </c>
-      <c r="E21">
-        <v>297.02756660684997</v>
-      </c>
-      <c r="F21">
-        <v>15</v>
-      </c>
-      <c r="G21">
-        <v>13.652546587663601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>649</v>
-      </c>
-      <c r="C22">
-        <v>715.37712080107701</v>
-      </c>
-      <c r="D22">
-        <v>509</v>
-      </c>
-      <c r="E22">
-        <v>284.74911563753301</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>15.0905709785171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>669</v>
-      </c>
-      <c r="C23">
-        <v>693.85272853477295</v>
-      </c>
-      <c r="D23">
-        <v>534</v>
-      </c>
-      <c r="E23">
-        <v>313.16780199360898</v>
-      </c>
-      <c r="F23">
-        <v>18</v>
-      </c>
-      <c r="G23">
-        <v>13.9322599371295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>743</v>
-      </c>
-      <c r="C24">
-        <v>692.24180394340999</v>
-      </c>
-      <c r="D24">
-        <v>595</v>
-      </c>
-      <c r="E24">
-        <v>312.62586106128401</v>
-      </c>
-      <c r="F24">
-        <v>19</v>
-      </c>
-      <c r="G24">
-        <v>15.370284327982899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>895</v>
-      </c>
-      <c r="C25">
-        <v>763.113863894009</v>
-      </c>
-      <c r="D25">
-        <v>545</v>
-      </c>
-      <c r="E25">
-        <v>340.875159317461</v>
-      </c>
-      <c r="F25">
-        <v>21</v>
-      </c>
-      <c r="G25">
-        <v>14.2119732865954</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>861</v>
-      </c>
-      <c r="C26">
-        <v>783.60203416637</v>
-      </c>
-      <c r="D26">
-        <v>524</v>
-      </c>
-      <c r="E26">
-        <v>325.20863241208298</v>
-      </c>
-      <c r="F26">
-        <v>22</v>
-      </c>
-      <c r="G26">
-        <v>15.6499976774488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="3">
-        <v>7.6230452406944402E-3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1.7291028861139899E-2</v>
-      </c>
-      <c r="G27" s="3">
-        <v>6.7587728112406698E-3</v>
+      <c r="C9" s="3">
+        <v>0.13476649781119099</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.315376087256939</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.132268055436746</v>
       </c>
     </row>
   </sheetData>
